--- a/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
@@ -127,24 +127,24 @@
     <t>9740063</t>
   </si>
   <si>
+    <t>9740062</t>
+  </si>
+  <si>
     <t>9740051</t>
   </si>
   <si>
-    <t>9740062</t>
-  </si>
-  <si>
     <t>13120091</t>
   </si>
   <si>
+    <t>11111041</t>
+  </si>
+  <si>
+    <t>9740042</t>
+  </si>
+  <si>
     <t>1124022</t>
   </si>
   <si>
-    <t>11111041</t>
-  </si>
-  <si>
-    <t>9740042</t>
-  </si>
-  <si>
     <t>1114015</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>6133012</t>
   </si>
   <si>
+    <t>1113053</t>
+  </si>
+  <si>
+    <t>11112051</t>
+  </si>
+  <si>
     <t>8192011</t>
   </si>
   <si>
-    <t>1113053</t>
-  </si>
-  <si>
-    <t>11112051</t>
-  </si>
-  <si>
     <t>1193033</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>13111011</t>
   </si>
   <si>
+    <t>1199023</t>
+  </si>
+  <si>
     <t>1125022</t>
   </si>
   <si>
-    <t>1199023</t>
-  </si>
-  <si>
     <t>8192012</t>
   </si>
   <si>
@@ -862,24 +862,24 @@
     <t>Crayones de cera de 12 unidades</t>
   </si>
   <si>
+    <t>Crayones de madera de 24 unidades</t>
+  </si>
+  <si>
     <t>Tijera escolar punta redonda (sin punta de 5")</t>
   </si>
   <si>
-    <t>Crayones de madera de 24 unidades</t>
-  </si>
-  <si>
     <t>Paquete de hisopos de 50 a 150 unidades</t>
   </si>
   <si>
+    <t>Taza de café</t>
+  </si>
+  <si>
+    <t>Paquete de 100 hojas bond de cuadrícula o líneas (60 gramos)</t>
+  </si>
+  <si>
     <t>Patas de res</t>
   </si>
   <si>
-    <t>Taza de café</t>
-  </si>
-  <si>
-    <t>Paquete de 100 hojas bond de cuadrícula o líneas (60 gramos)</t>
-  </si>
-  <si>
     <t>Cereal de Avena</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>Ropa interior desechable unisex</t>
   </si>
   <si>
+    <t>Campechanas y Lenguas</t>
+  </si>
+  <si>
+    <t>Tacos y gringas (mexicanos)</t>
+  </si>
+  <si>
     <t>Cable cargador para teléfono móvil</t>
   </si>
   <si>
-    <t>Campechanas y Lenguas</t>
-  </si>
-  <si>
-    <t>Tacos y gringas (mexicanos)</t>
-  </si>
-  <si>
     <t>Sazonadores y ablandadores</t>
   </si>
   <si>
@@ -1018,10 +1018,10 @@
     <t>Afeitadora rotativa de 2 o 3 cabezales</t>
   </si>
   <si>
+    <t>Glucerna en polvo</t>
+  </si>
+  <si>
     <t>Jamón de pollo</t>
-  </si>
-  <si>
-    <t>Glucerna en polvo</t>
   </si>
   <si>
     <t>Cable cargador y cubo para teléfono móvil</t>
@@ -1878,7 +1878,7 @@
         <v>248</v>
       </c>
       <c r="D2">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>250</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>252</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2410,12 +2410,12 @@
         <v>286</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2424,7 +2424,7 @@
         <v>287</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2984,12 +2984,12 @@
         <v>327</v>
       </c>
       <c r="D81">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -3082,12 +3082,12 @@
         <v>334</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>

--- a/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
@@ -127,24 +127,24 @@
     <t>9740063</t>
   </si>
   <si>
+    <t>9740051</t>
+  </si>
+  <si>
     <t>9740062</t>
   </si>
   <si>
-    <t>9740051</t>
-  </si>
-  <si>
     <t>13120091</t>
   </si>
   <si>
+    <t>1124022</t>
+  </si>
+  <si>
     <t>11111041</t>
   </si>
   <si>
     <t>9740042</t>
   </si>
   <si>
-    <t>1124022</t>
-  </si>
-  <si>
     <t>1114015</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>6133012</t>
   </si>
   <si>
+    <t>8192011</t>
+  </si>
+  <si>
     <t>1113053</t>
   </si>
   <si>
     <t>11112051</t>
   </si>
   <si>
-    <t>8192011</t>
-  </si>
-  <si>
     <t>1193033</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>13111011</t>
   </si>
   <si>
+    <t>1125022</t>
+  </si>
+  <si>
     <t>1199023</t>
   </si>
   <si>
-    <t>1125022</t>
-  </si>
-  <si>
     <t>8192012</t>
   </si>
   <si>
@@ -862,24 +862,24 @@
     <t>Crayones de cera de 12 unidades</t>
   </si>
   <si>
+    <t>Tijera escolar punta redonda (sin punta de 5")</t>
+  </si>
+  <si>
     <t>Crayones de madera de 24 unidades</t>
   </si>
   <si>
-    <t>Tijera escolar punta redonda (sin punta de 5")</t>
-  </si>
-  <si>
     <t>Paquete de hisopos de 50 a 150 unidades</t>
   </si>
   <si>
+    <t>Patas de res</t>
+  </si>
+  <si>
     <t>Taza de café</t>
   </si>
   <si>
     <t>Paquete de 100 hojas bond de cuadrícula o líneas (60 gramos)</t>
   </si>
   <si>
-    <t>Patas de res</t>
-  </si>
-  <si>
     <t>Cereal de Avena</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>Ropa interior desechable unisex</t>
   </si>
   <si>
+    <t>Cable cargador para teléfono móvil</t>
+  </si>
+  <si>
     <t>Campechanas y Lenguas</t>
   </si>
   <si>
     <t>Tacos y gringas (mexicanos)</t>
   </si>
   <si>
-    <t>Cable cargador para teléfono móvil</t>
-  </si>
-  <si>
     <t>Sazonadores y ablandadores</t>
   </si>
   <si>
@@ -1018,10 +1018,10 @@
     <t>Afeitadora rotativa de 2 o 3 cabezales</t>
   </si>
   <si>
+    <t>Jamón de pollo</t>
+  </si>
+  <si>
     <t>Glucerna en polvo</t>
-  </si>
-  <si>
-    <t>Jamón de pollo</t>
   </si>
   <si>
     <t>Cable cargador y cubo para teléfono móvil</t>
@@ -1878,7 +1878,7 @@
         <v>248</v>
       </c>
       <c r="D2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>250</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>252</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2410,12 +2410,12 @@
         <v>286</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2424,7 +2424,7 @@
         <v>287</v>
       </c>
       <c r="D41">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2984,12 +2984,12 @@
         <v>327</v>
       </c>
       <c r="D81">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -3082,12 +3082,12 @@
         <v>334</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>

--- a/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_4_2024.xlsx
@@ -1447,7 +1447,7 @@
     <t>Puerta lisa para interior de color natural 0.90x2m</t>
   </si>
   <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Alquiler de vehículo por día (kilometraje)</t>
   </si>
   <si>
     <t>Esmalte para uñas</t>
